--- a/Outputs/3. Prosumer percentage/Base Cases/40/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/40/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2249502.207420732</v>
+        <v>2249502.207420731</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812156.3777557407</v>
+        <v>812156.3777557404</v>
       </c>
       <c r="C2" t="n">
-        <v>812156.3777557407</v>
+        <v>812156.3777557404</v>
       </c>
       <c r="D2" t="n">
-        <v>812156.3777557407</v>
+        <v>812156.3777557404</v>
       </c>
       <c r="E2" t="n">
         <v>776231.7236377397</v>
@@ -26326,34 +26326,34 @@
         <v>796623.6251468835</v>
       </c>
       <c r="G2" t="n">
-        <v>802407.5633683283</v>
+        <v>802407.5633683281</v>
       </c>
       <c r="H2" t="n">
-        <v>802407.5633683283</v>
+        <v>802407.5633683281</v>
       </c>
       <c r="I2" t="n">
-        <v>802407.5633683283</v>
+        <v>802407.5633683281</v>
       </c>
       <c r="J2" t="n">
         <v>776231.7236377397</v>
       </c>
       <c r="K2" t="n">
-        <v>802407.5633683283</v>
+        <v>802407.5633683281</v>
       </c>
       <c r="L2" t="n">
-        <v>809137.0431935107</v>
+        <v>809137.0431935106</v>
       </c>
       <c r="M2" t="n">
-        <v>809137.0431935107</v>
+        <v>809137.0431935106</v>
       </c>
       <c r="N2" t="n">
-        <v>809137.0431935107</v>
+        <v>809137.0431935106</v>
       </c>
       <c r="O2" t="n">
         <v>768012.0660012891</v>
       </c>
       <c r="P2" t="n">
-        <v>708151.0522688554</v>
+        <v>708151.0522688553</v>
       </c>
     </row>
     <row r="3">
@@ -26430,19 +26430,19 @@
         <v>454686.5368536103</v>
       </c>
       <c r="G4" t="n">
-        <v>457987.8183575312</v>
+        <v>457987.8183575313</v>
       </c>
       <c r="H4" t="n">
-        <v>457987.8183575312</v>
+        <v>457987.8183575313</v>
       </c>
       <c r="I4" t="n">
-        <v>457987.8183575312</v>
+        <v>457987.8183575313</v>
       </c>
       <c r="J4" t="n">
         <v>443047.5108639618</v>
       </c>
       <c r="K4" t="n">
-        <v>457987.8183575312</v>
+        <v>457987.8183575313</v>
       </c>
       <c r="L4" t="n">
         <v>461828.7838774457</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314976.6571200491</v>
+        <v>314976.6571200489</v>
       </c>
       <c r="C6" t="n">
-        <v>314976.6571200491</v>
+        <v>314976.6571200489</v>
       </c>
       <c r="D6" t="n">
-        <v>314976.6571200491</v>
+        <v>314976.6571200489</v>
       </c>
       <c r="E6" t="n">
-        <v>42738.17615558577</v>
+        <v>42738.1761555858</v>
       </c>
       <c r="F6" t="n">
         <v>289500.4760296636</v>
       </c>
       <c r="G6" t="n">
-        <v>305263.3846626887</v>
+        <v>305263.3846626885</v>
       </c>
       <c r="H6" t="n">
-        <v>313567.675002164</v>
+        <v>313567.6750021639</v>
       </c>
       <c r="I6" t="n">
-        <v>313567.675002164</v>
+        <v>313567.6750021639</v>
       </c>
       <c r="J6" t="n">
-        <v>73499.6754807244</v>
+        <v>73499.67548072443</v>
       </c>
       <c r="K6" t="n">
-        <v>260348.9666913621</v>
+        <v>260348.966691362</v>
       </c>
       <c r="L6" t="n">
-        <v>293889.2667676025</v>
+        <v>293889.2667676024</v>
       </c>
       <c r="M6" t="n">
-        <v>315099.9091681538</v>
+        <v>315099.9091681537</v>
       </c>
       <c r="N6" t="n">
-        <v>315099.9091681538</v>
+        <v>315099.9091681537</v>
       </c>
       <c r="O6" t="n">
         <v>121938.5391943787</v>
       </c>
       <c r="P6" t="n">
-        <v>282724.0363409923</v>
+        <v>282724.0363409922</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Base Cases/40/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/40/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2249502.207420731</v>
+        <v>2229467.036443321</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>775076.0555261872</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6897874.068759538</v>
+        <v>6929579.173143446</v>
       </c>
     </row>
     <row r="11">
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.1831884688757</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C11" t="n">
-        <v>38.45187415642329</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D11" t="n">
-        <v>28.07151123207905</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E11" t="n">
-        <v>54.58481423276811</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F11" t="n">
-        <v>78.76064195802149</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G11" t="n">
-        <v>86.32154388131158</v>
+        <v>64.32464840327634</v>
       </c>
       <c r="H11" t="n">
-        <v>9.610681865634035</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>42.32837760865004</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.15385022871646</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.11167723679665</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C14" t="n">
-        <v>10.38036292434424</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E14" t="n">
-        <v>26.51330300068906</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F14" t="n">
-        <v>50.68913072594245</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G14" t="n">
-        <v>58.25003264923254</v>
+        <v>64.32464840327634</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>14.256866376571</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.08233899663742</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="15">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.73131431245241</v>
+        <v>27.11167723679665</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>10.38036292434424</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>16.13294007634482</v>
+        <v>26.51330300068906</v>
       </c>
       <c r="F17" t="n">
-        <v>40.30876780159821</v>
+        <v>50.68913072594245</v>
       </c>
       <c r="G17" t="n">
-        <v>47.8696697248883</v>
+        <v>58.25003264923254</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.876503452226757</v>
+        <v>14.256866376571</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.70197607229318</v>
+        <v>30.08233899663742</v>
       </c>
     </row>
     <row r="18">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.73131431245241</v>
+        <v>27.11167723679665</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10.38036292434424</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>16.13294007634482</v>
+        <v>26.51330300068906</v>
       </c>
       <c r="F20" t="n">
-        <v>40.30876780159821</v>
+        <v>50.68913072594245</v>
       </c>
       <c r="G20" t="n">
-        <v>47.8696697248883</v>
+        <v>58.25003264923254</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>3.876503452226757</v>
+        <v>14.256866376571</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.70197607229318</v>
+        <v>30.08233899663742</v>
       </c>
     </row>
     <row r="21">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.73131431245241</v>
+        <v>27.11167723679665</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10.38036292434424</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>16.13294007634482</v>
+        <v>26.51330300068906</v>
       </c>
       <c r="F23" t="n">
-        <v>40.30876780159821</v>
+        <v>50.68913072594245</v>
       </c>
       <c r="G23" t="n">
-        <v>47.8696697248883</v>
+        <v>58.25003264923254</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>3.876503452226757</v>
+        <v>14.256866376571</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.70197607229318</v>
+        <v>30.08233899663742</v>
       </c>
     </row>
     <row r="24">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.1831884688757</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C26" t="n">
-        <v>38.45187415642329</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D26" t="n">
-        <v>28.07151123207905</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E26" t="n">
-        <v>54.58481423276811</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F26" t="n">
-        <v>78.76064195802149</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G26" t="n">
-        <v>86.32154388131158</v>
+        <v>64.32464840327634</v>
       </c>
       <c r="H26" t="n">
-        <v>9.610681865634035</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>42.32837760865004</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y26" t="n">
-        <v>58.15385022871646</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="27">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.73131431245241</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E29" t="n">
-        <v>16.13294007634482</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F29" t="n">
-        <v>40.30876780159821</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G29" t="n">
-        <v>47.8696697248883</v>
+        <v>64.32464840327634</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>3.876503452226757</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.70197607229318</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="30">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5983742361075883</v>
+        <v>27.11167723679665</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>10.38036292434424</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>26.51330300068906</v>
       </c>
       <c r="F32" t="n">
-        <v>24.17582772525338</v>
+        <v>50.68913072594245</v>
       </c>
       <c r="G32" t="n">
-        <v>31.73672964854347</v>
+        <v>58.25003264923254</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>14.256866376571</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.569035995948354</v>
+        <v>30.08233899663742</v>
       </c>
     </row>
     <row r="33">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5983742361075883</v>
+        <v>27.11167723679665</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>10.38036292434424</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>26.51330300068906</v>
       </c>
       <c r="F35" t="n">
-        <v>24.17582772525338</v>
+        <v>50.68913072594245</v>
       </c>
       <c r="G35" t="n">
-        <v>31.73672964854347</v>
+        <v>58.25003264923254</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>14.256866376571</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.569035995948354</v>
+        <v>30.08233899663742</v>
       </c>
     </row>
     <row r="36">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5983742361075883</v>
+        <v>27.11167723679665</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>10.38036292434424</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>26.51330300068906</v>
       </c>
       <c r="F38" t="n">
-        <v>24.17582772525338</v>
+        <v>50.68913072594245</v>
       </c>
       <c r="G38" t="n">
-        <v>31.73672964854347</v>
+        <v>58.25003264923254</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>14.256866376571</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.569035995948354</v>
+        <v>30.08233899663742</v>
       </c>
     </row>
     <row r="39">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.57064579693701</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C41" t="n">
-        <v>47.8393314844846</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D41" t="n">
-        <v>37.45896856014036</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E41" t="n">
-        <v>63.97227156082943</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F41" t="n">
-        <v>88.14809928608281</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G41" t="n">
-        <v>95.7090012093729</v>
+        <v>64.32464840327634</v>
       </c>
       <c r="H41" t="n">
-        <v>18.99813919369535</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>9.387457328061316</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>31.38435280609656</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>51.71583493671136</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y41" t="n">
-        <v>67.54130755677778</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="42">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>131.0940311854393</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C44" t="n">
-        <v>114.3627168729869</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D44" t="n">
-        <v>103.9823539486427</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E44" t="n">
-        <v>130.4956569493318</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F44" t="n">
-        <v>154.6714846745851</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G44" t="n">
-        <v>162.2323865978752</v>
+        <v>64.32464840327634</v>
       </c>
       <c r="H44" t="n">
-        <v>85.52152458219769</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>75.91084271656365</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>97.90773819459889</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>118.2392203252137</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y44" t="n">
-        <v>134.0646929452801</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="45">
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.42989158510852</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3139722609834337</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>33.47019808145984</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582173.7927283043</v>
+        <v>594566.4823760311</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>597467.7188601624</v>
+        <v>594566.4823760311</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>601805.6725262458</v>
+        <v>597467.7188601624</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>601805.6725262458</v>
+        <v>597467.7188601624</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>601805.6725262458</v>
+        <v>597467.7188601624</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>582173.7927283043</v>
+        <v>594566.4823760311</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>601805.6725262458</v>
+        <v>594566.4823760311</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606852.7823951327</v>
+        <v>597467.7188601624</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606852.7823951327</v>
+        <v>597467.7188601624</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606852.7823951327</v>
+        <v>597467.7188601624</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>576009.0495009666</v>
+        <v>594566.4823760311</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531113.289201641</v>
+        <v>594566.4823760311</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>812156.3777557404</v>
       </c>
       <c r="E2" t="n">
-        <v>776231.7236377397</v>
+        <v>792755.3098347085</v>
       </c>
       <c r="F2" t="n">
+        <v>792755.3098347085</v>
+      </c>
+      <c r="G2" t="n">
         <v>796623.6251468835</v>
       </c>
-      <c r="G2" t="n">
-        <v>802407.5633683281</v>
-      </c>
       <c r="H2" t="n">
-        <v>802407.5633683281</v>
+        <v>796623.6251468835</v>
       </c>
       <c r="I2" t="n">
-        <v>802407.5633683281</v>
+        <v>796623.6251468835</v>
       </c>
       <c r="J2" t="n">
-        <v>776231.7236377397</v>
+        <v>792755.3098347085</v>
       </c>
       <c r="K2" t="n">
-        <v>802407.5633683281</v>
+        <v>792755.3098347085</v>
       </c>
       <c r="L2" t="n">
-        <v>809137.0431935106</v>
+        <v>796623.6251468835</v>
       </c>
       <c r="M2" t="n">
-        <v>809137.0431935106</v>
+        <v>796623.6251468835</v>
       </c>
       <c r="N2" t="n">
-        <v>809137.0431935106</v>
+        <v>796623.6251468835</v>
       </c>
       <c r="O2" t="n">
-        <v>768012.0660012891</v>
+        <v>792755.3098347085</v>
       </c>
       <c r="P2" t="n">
-        <v>708151.0522688553</v>
+        <v>792755.3098347085</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>262826.5772180154</v>
+        <v>280424.0936004437</v>
       </c>
       <c r="F3" t="n">
-        <v>22457.20898566324</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8304.290339475392</v>
+        <v>4859.692603235044</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232065.0778928768</v>
+        <v>275564.4009972086</v>
       </c>
       <c r="K3" t="n">
-        <v>53218.70831080187</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>21210.64240055125</v>
+        <v>9719.385206470088</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>180887.2606442133</v>
+        <v>270704.7083939735</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>443047.5108639618</v>
+        <v>452478.6298355045</v>
       </c>
       <c r="F4" t="n">
+        <v>452478.6298355045</v>
+      </c>
+      <c r="G4" t="n">
         <v>454686.5368536103</v>
       </c>
-      <c r="G4" t="n">
-        <v>457987.8183575313</v>
-      </c>
       <c r="H4" t="n">
-        <v>457987.8183575313</v>
+        <v>454686.5368536103</v>
       </c>
       <c r="I4" t="n">
-        <v>457987.8183575313</v>
+        <v>454686.5368536103</v>
       </c>
       <c r="J4" t="n">
-        <v>443047.5108639618</v>
+        <v>452478.6298355045</v>
       </c>
       <c r="K4" t="n">
-        <v>457987.8183575313</v>
+        <v>452478.6298355045</v>
       </c>
       <c r="L4" t="n">
-        <v>461828.7838774457</v>
+        <v>454686.5368536103</v>
       </c>
       <c r="M4" t="n">
-        <v>461828.7838774457</v>
+        <v>454686.5368536103</v>
       </c>
       <c r="N4" t="n">
-        <v>461828.7838774457</v>
+        <v>454686.5368536103</v>
       </c>
       <c r="O4" t="n">
-        <v>438356.0009126332</v>
+        <v>452478.6298355045</v>
       </c>
       <c r="P4" t="n">
-        <v>404189.3051640252</v>
+        <v>452478.6298355045</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>27619.45940017668</v>
+        <v>29468.71640611962</v>
       </c>
       <c r="F5" t="n">
+        <v>29468.71640611962</v>
+      </c>
+      <c r="G5" t="n">
         <v>29979.40327794633</v>
       </c>
-      <c r="G5" t="n">
-        <v>30852.07000863303</v>
-      </c>
       <c r="H5" t="n">
-        <v>30852.07000863303</v>
+        <v>29979.40327794633</v>
       </c>
       <c r="I5" t="n">
-        <v>30852.07000863303</v>
+        <v>29979.40327794633</v>
       </c>
       <c r="J5" t="n">
-        <v>27619.45940017668</v>
+        <v>29468.71640611962</v>
       </c>
       <c r="K5" t="n">
-        <v>30852.07000863303</v>
+        <v>29468.71640611962</v>
       </c>
       <c r="L5" t="n">
-        <v>32208.35014791126</v>
+        <v>29979.40327794633</v>
       </c>
       <c r="M5" t="n">
-        <v>32208.35014791126</v>
+        <v>29979.40327794633</v>
       </c>
       <c r="N5" t="n">
-        <v>32208.35014791126</v>
+        <v>29979.40327794633</v>
       </c>
       <c r="O5" t="n">
-        <v>26830.26525006389</v>
+        <v>29468.71640611962</v>
       </c>
       <c r="P5" t="n">
-        <v>21237.71076383789</v>
+        <v>29468.71640611962</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>314976.6571200489</v>
       </c>
       <c r="E6" t="n">
-        <v>42738.1761555858</v>
+        <v>30383.8699926407</v>
       </c>
       <c r="F6" t="n">
-        <v>289500.4760296636</v>
+        <v>310807.9635930844</v>
       </c>
       <c r="G6" t="n">
-        <v>305263.3846626885</v>
+        <v>307097.9924120919</v>
       </c>
       <c r="H6" t="n">
-        <v>313567.6750021639</v>
+        <v>311957.6850153269</v>
       </c>
       <c r="I6" t="n">
-        <v>313567.6750021639</v>
+        <v>311957.6850153269</v>
       </c>
       <c r="J6" t="n">
-        <v>73499.67548072443</v>
+        <v>35243.56259587577</v>
       </c>
       <c r="K6" t="n">
-        <v>260348.966691362</v>
+        <v>310807.9635930844</v>
       </c>
       <c r="L6" t="n">
-        <v>293889.2667676024</v>
+        <v>302238.2998088569</v>
       </c>
       <c r="M6" t="n">
-        <v>315099.9091681537</v>
+        <v>311957.6850153269</v>
       </c>
       <c r="N6" t="n">
-        <v>315099.9091681537</v>
+        <v>311957.6850153269</v>
       </c>
       <c r="O6" t="n">
-        <v>121938.5391943787</v>
+        <v>40103.25519911085</v>
       </c>
       <c r="P6" t="n">
-        <v>282724.0363409922</v>
+        <v>310807.9635930844</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F2" t="n">
+        <v>350.5301170005546</v>
+      </c>
+      <c r="G2" t="n">
         <v>356.6047327545984</v>
       </c>
-      <c r="G2" t="n">
-        <v>366.9850956789426</v>
-      </c>
       <c r="H2" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="I2" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="J2" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="K2" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="L2" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="M2" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="N2" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="O2" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="P2" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F2" t="n">
-        <v>28.07151123207905</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.38036292434424</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>290.0813473660961</v>
+        <v>344.4555012465108</v>
       </c>
       <c r="K2" t="n">
-        <v>66.52338538850233</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>26.51330300068906</v>
+        <v>12.14923150808761</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>226.1090758052666</v>
+        <v>338.3808854924669</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="K2" t="n">
-        <v>28.07151123207905</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.38036292434424</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>290.0813473660961</v>
+        <v>344.4555012465108</v>
       </c>
       <c r="P2" t="n">
-        <v>66.52338538850233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H11" t="n">
-        <v>328.5332215225193</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
         <v>205.224307868124</v>
@@ -28150,13 +28152,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y11" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="12">
@@ -28324,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H14" t="n">
         <v>338.1439033881534</v>
@@ -28390,10 +28392,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y14" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="15">
@@ -28561,22 +28563,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="F17" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="G17" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="H17" t="n">
         <v>338.1439033881534</v>
@@ -28627,10 +28629,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
     </row>
     <row r="18">
@@ -28798,22 +28800,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="F20" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="G20" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
@@ -28864,10 +28866,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
     </row>
     <row r="21">
@@ -29035,22 +29037,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="F23" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="G23" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
@@ -29101,10 +29103,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H26" t="n">
-        <v>328.5332215225193</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -29335,13 +29337,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y26" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="27">
@@ -29509,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E29" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F29" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G29" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
@@ -29575,10 +29577,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y29" t="n">
-        <v>366.9850956789426</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="30">
@@ -29746,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="F32" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="G32" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="H32" t="n">
         <v>338.1439033881534</v>
@@ -29812,10 +29814,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
     </row>
     <row r="33">
@@ -29983,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="F35" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="G35" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
@@ -30049,10 +30051,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="Y35" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
     </row>
     <row r="36">
@@ -30220,22 +30222,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="F38" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="G38" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="H38" t="n">
         <v>338.1439033881534</v>
@@ -30286,10 +30288,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="Y38" t="n">
-        <v>383.1180357552875</v>
+        <v>356.6047327545984</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H41" t="n">
-        <v>319.145764194458</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I41" t="n">
         <v>205.224307868124</v>
@@ -30517,16 +30519,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>319.145764194458</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.145764194458</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H44" t="n">
-        <v>252.6223788059557</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
         <v>205.224307868124</v>
@@ -30754,16 +30756,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
-        <v>252.6223788059557</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y44" t="n">
-        <v>252.6223788059557</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="45">
@@ -30909,13 +30911,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>252.6223788059557</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
-        <v>252.6223788059557</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>252.6223788059557</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
